--- a/artfynd/A 3557-2025 artfynd.xlsx
+++ b/artfynd/A 3557-2025 artfynd.xlsx
@@ -9004,7 +9004,7 @@
         <v>130997109</v>
       </c>
       <c r="B77" t="n">
-        <v>87188</v>
+        <v>87192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>130996947</v>
       </c>
       <c r="B256" t="n">
-        <v>87067</v>
+        <v>87071</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>

--- a/artfynd/A 3557-2025 artfynd.xlsx
+++ b/artfynd/A 3557-2025 artfynd.xlsx
@@ -9004,7 +9004,7 @@
         <v>130997109</v>
       </c>
       <c r="B77" t="n">
-        <v>87192</v>
+        <v>87193</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>130996947</v>
       </c>
       <c r="B256" t="n">
-        <v>87071</v>
+        <v>87072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>

--- a/artfynd/A 3557-2025 artfynd.xlsx
+++ b/artfynd/A 3557-2025 artfynd.xlsx
@@ -9004,7 +9004,7 @@
         <v>130997109</v>
       </c>
       <c r="B77" t="n">
-        <v>87193</v>
+        <v>87194</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>130996947</v>
       </c>
       <c r="B256" t="n">
-        <v>87072</v>
+        <v>87073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>

--- a/artfynd/A 3557-2025 artfynd.xlsx
+++ b/artfynd/A 3557-2025 artfynd.xlsx
@@ -9004,7 +9004,7 @@
         <v>130997109</v>
       </c>
       <c r="B77" t="n">
-        <v>87194</v>
+        <v>87197</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>130996947</v>
       </c>
       <c r="B256" t="n">
-        <v>87073</v>
+        <v>87076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
